--- a/Attendance_Assignments_1230.xlsx
+++ b/Attendance_Assignments_1230.xlsx
@@ -8,20 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonou\Dropbox\git\math201_1230\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91745325-6CEB-4F50-A71C-C5F64EFD12EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B9903-076D-4EB3-A2D7-87E9AC04E1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance Sheet - 101 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Attendance Sheet - 101" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="190">
   <si>
     <t>First Name</t>
   </si>
@@ -206,9 +220,6 @@
     <t>George</t>
   </si>
   <si>
-    <t>Math 201. 1230PM. Spring 2023.</t>
-  </si>
-  <si>
     <t>Ambrosone</t>
   </si>
   <si>
@@ -393,6 +404,207 @@
   </si>
   <si>
     <t>Aden</t>
+  </si>
+  <si>
+    <t>Math 201N. 1230PM. Spring 2023.</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Dante</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Lynsey</t>
+  </si>
+  <si>
+    <t>Ryley</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Aiden</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Roie</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Nickolas</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
+    <t>Brianne</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Aleksandr</t>
+  </si>
+  <si>
+    <t>Cade</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Math 201K. 1400PM. Spring 2023.</t>
+  </si>
+  <si>
+    <t>Anelli</t>
+  </si>
+  <si>
+    <t>Brito</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
+  <si>
+    <t>Dearing</t>
+  </si>
+  <si>
+    <t>Deniso</t>
+  </si>
+  <si>
+    <t>Dye</t>
+  </si>
+  <si>
+    <t>Fleming</t>
+  </si>
+  <si>
+    <t>Giogas</t>
+  </si>
+  <si>
+    <t>Glau</t>
+  </si>
+  <si>
+    <t>Glynn</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Guarneri</t>
+  </si>
+  <si>
+    <t>Gudewicz</t>
+  </si>
+  <si>
+    <t>Jaffarian</t>
+  </si>
+  <si>
+    <t>Lachmish</t>
+  </si>
+  <si>
+    <t>Larochelle</t>
+  </si>
+  <si>
+    <t>Lau</t>
+  </si>
+  <si>
+    <t>Lavoie</t>
+  </si>
+  <si>
+    <t>Leedham</t>
+  </si>
+  <si>
+    <t>MacMillan</t>
+  </si>
+  <si>
+    <t>Maki</t>
+  </si>
+  <si>
+    <t>Masse</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>Pesce</t>
+  </si>
+  <si>
+    <t>Pickering</t>
+  </si>
+  <si>
+    <t>Raesly</t>
+  </si>
+  <si>
+    <t>Rocheleau</t>
+  </si>
+  <si>
+    <t>Salomao</t>
+  </si>
+  <si>
+    <t>Sanchez Mercedes</t>
+  </si>
+  <si>
+    <t>Shekhel</t>
+  </si>
+  <si>
+    <t>Stellakis</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Doherty</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Assignments</t>
   </si>
 </sst>
 </file>
@@ -1881,458 +2093,1014 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7810A9-5A85-465C-93D1-F7288CD0E717}">
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.3" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="23.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="38" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="30.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Attendance_Assignments_1230.xlsx
+++ b/Attendance_Assignments_1230.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonou\Dropbox\git\math201_1230\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B9903-076D-4EB3-A2D7-87E9AC04E1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5EE33B-694D-496E-AF3A-203736C282F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,9 +541,6 @@
     <t>Larochelle</t>
   </si>
   <si>
-    <t>Lau</t>
-  </si>
-  <si>
     <t>Lavoie</t>
   </si>
   <si>
@@ -605,6 +602,9 @@
   </si>
   <si>
     <t>Assignments</t>
+  </si>
+  <si>
+    <t>Morley</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2096,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2202,10 +2202,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2611,10 +2611,10 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" style="6" customWidth="1"/>
@@ -2624,7 +2624,7 @@
     <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>151</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2641,13 +2641,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -2816,7 +2816,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -2868,12 +2868,12 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>168</v>
@@ -2881,12 +2881,12 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>169</v>
@@ -2894,12 +2894,12 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>170</v>
@@ -2907,12 +2907,12 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>171</v>
@@ -2920,12 +2920,12 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>172</v>
@@ -2933,12 +2933,12 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>173</v>
@@ -2946,20 +2946,20 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -2967,12 +2967,12 @@
         <v>23</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2980,12 +2980,12 @@
         <v>142</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -2993,12 +2993,12 @@
         <v>143</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -3006,12 +3006,12 @@
         <v>144</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -3019,12 +3019,12 @@
         <v>145</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -3032,12 +3032,12 @@
         <v>146</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -3045,12 +3045,12 @@
         <v>147</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -3058,12 +3058,12 @@
         <v>3</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -3071,12 +3071,12 @@
         <v>148</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -3084,12 +3084,12 @@
         <v>149</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>150</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
